--- a/biology/Médecine/Nielsine_Nielsen/Nielsine_Nielsen.xlsx
+++ b/biology/Médecine/Nielsine_Nielsen/Nielsine_Nielsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nielsine Nielsen, née le 10 juin 1850 à Svendborg (Danemark) et morte le 8 octobre 1916 à Copenhague (Danemark), est la première femme danoise diplômée de médecine. Elle a également eu un engagement féministe.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la fille d'un propriétaire de bateaux, Lars Nielsen (1808-1886), et de Karen Jensen (1811-1882). Elle grandit à Svendborg. Pendant son enfance, son frère et sa sœur meurent de la typhoïde, ce qui suscite son intérêt pour la médecine.
 En 1868, elle se forme seule au métier de professeur au Frøknerne Villemoes-Qvistgaards Institut de Copenhague puis travaille en province comme gouvernante pendant plusieurs années. En 1874, alors qu'elle correspondait avec la première femme médecin suédoise Charlotte Yhlen, celle-ci lui conseille de contacter le parlementaire danois C. E. Fenger, connu pour partager la cause des droits des femmes et qui avait auparavant soutenu la première femme télégraphiste danoise, Mathilde Fibiger. C. E. Fenger joue alors le rôle d'intermédiaire entre l'université et le ministère de l'Éducation pour qu'elle puisse étudier.
@@ -546,7 +560,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une route porte son nom à Rigshospitalet ainsi qu'un des plus grands hôpitaux de Copenhague.
 </t>
@@ -577,7 +593,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Nielsine Nielsen » (voir la liste des auteurs).</t>
         </is>
